--- a/meditations/operation/strategy_update/checklist/运维事项确认表.xlsx
+++ b/meditations/operation/strategy_update/checklist/运维事项确认表.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="策略更新" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="部署新的交易系统" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,6 +67,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从原有系统复制一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改通道配置文件的引用前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>y_trade_tunnel_femas.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;orderref_prefix&gt;85&lt;/orderref_prefix&gt;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值：目前使用交易帐号末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位（以后根据情况再调整）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改帐号、密码、连接等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改合并数据脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并后的数据需要上传云服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cron</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后缀采用交易帐号末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改行情程序脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改trader脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保证只有一个行情程序向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~/domi_contr_check/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拷贝数据文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改trader的lic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改行情数据落地标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my_quote_shfe_my.config</t>
+  </si>
+  <si>
+    <t>修改交易程序名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改行情程序名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日盘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,19 +304,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>郑州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(ok) 日盘测试shni和shzn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ok)夜盘测试shni和shru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>停止交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,11 +372,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -167,9 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -184,17 +434,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -232,19 +510,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:F7" totalsRowShown="0">
-  <autoFilter ref="A2:F7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:F3" totalsRowShown="0">
+  <autoFilter ref="A2:F3">
     <filterColumn colId="2"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" name="交易所" dataDxfId="4"/>
-    <tableColumn id="6" name="日/夜盘" dataDxfId="3"/>
-    <tableColumn id="3" name="日期" dataDxfId="2"/>
-    <tableColumn id="4" name="状态" dataDxfId="1"/>
-    <tableColumn id="5" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="7"/>
+    <tableColumn id="2" name="交易所" dataDxfId="6"/>
+    <tableColumn id="6" name="日/夜盘" dataDxfId="5"/>
+    <tableColumn id="3" name="日期" dataDxfId="4"/>
+    <tableColumn id="4" name="：w" dataDxfId="0"/>
+    <tableColumn id="5" name="备注" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C37" totalsRowShown="0">
+  <autoFilter ref="A1:C37"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="步骤"/>
+    <tableColumn id="2" name="描述" dataDxfId="2"/>
+    <tableColumn id="3" name="备注" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,77 +825,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="2.25" customHeight="1">
-      <c r="A1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.75" customHeight="1">
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42746</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="46.5" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>42746</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>9</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>42768</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="19">
+        <v>42768</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="19">
+        <v>42768</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="19">
+        <v>42768</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="19">
+        <v>42768</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="19">
+        <v>42768</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -620,14 +984,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="63.75" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="41.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
